--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H2">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I2">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J2">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N2">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O2">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P2">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q2">
-        <v>5.192004043057</v>
+        <v>6.105216413285333</v>
       </c>
       <c r="R2">
-        <v>46.728036387513</v>
+        <v>54.946947719568</v>
       </c>
       <c r="S2">
-        <v>0.0002108245746201418</v>
+        <v>0.0001466382516243319</v>
       </c>
       <c r="T2">
-        <v>0.0002693775890588201</v>
+        <v>0.0001994223127146828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H3">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I3">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J3">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P3">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q3">
-        <v>37.28872525088533</v>
+        <v>33.04802932299022</v>
       </c>
       <c r="R3">
-        <v>335.5985272579679</v>
+        <v>297.4322639069119</v>
       </c>
       <c r="S3">
-        <v>0.001514132033401988</v>
+        <v>0.0007937646942387678</v>
       </c>
       <c r="T3">
-        <v>0.001934656988681</v>
+        <v>0.001079489078210559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H4">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I4">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J4">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N4">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O4">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P4">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q4">
-        <v>7.652567297695667</v>
+        <v>7.737803633107112</v>
       </c>
       <c r="R4">
-        <v>68.873105679261</v>
+        <v>69.640232697964</v>
       </c>
       <c r="S4">
-        <v>0.0003107372860092714</v>
+        <v>0.0001858505774999463</v>
       </c>
       <c r="T4">
-        <v>0.0003970393920475222</v>
+        <v>0.0002527495491377559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H5">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I5">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J5">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N5">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O5">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P5">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q5">
-        <v>90.32769632814849</v>
+        <v>167.246703508793</v>
       </c>
       <c r="R5">
-        <v>541.9661779688909</v>
+        <v>1003.480221052758</v>
       </c>
       <c r="S5">
-        <v>0.003667812659018412</v>
+        <v>0.004017017994496477</v>
       </c>
       <c r="T5">
-        <v>0.00312432435983329</v>
+        <v>0.003641992044164368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H6">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I6">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J6">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N6">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O6">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P6">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q6">
-        <v>3.624527273180667</v>
+        <v>2.460105987026444</v>
       </c>
       <c r="R6">
-        <v>32.620745458626</v>
+        <v>22.140953883238</v>
       </c>
       <c r="S6">
-        <v>0.0001471761990611815</v>
+        <v>5.908810045833985E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001880519372154557</v>
+        <v>8.035751597412249E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>2384.33138</v>
       </c>
       <c r="H7">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I7">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J7">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N7">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O7">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P7">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q7">
-        <v>852.9540175615399</v>
+        <v>1131.67997155216</v>
       </c>
       <c r="R7">
-        <v>7676.586158053859</v>
+        <v>10185.11974396944</v>
       </c>
       <c r="S7">
-        <v>0.03463473187456807</v>
+        <v>0.02718127600940895</v>
       </c>
       <c r="T7">
-        <v>0.04425395183118497</v>
+        <v>0.03696547704496102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>2384.33138</v>
       </c>
       <c r="H8">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I8">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J8">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P8">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q8">
-        <v>6125.875047232105</v>
+        <v>6125.875047232106</v>
       </c>
       <c r="R8">
-        <v>55132.87542508895</v>
+        <v>55132.87542508896</v>
       </c>
       <c r="S8">
-        <v>0.248744991394197</v>
+        <v>0.1471344414000637</v>
       </c>
       <c r="T8">
-        <v>0.317829770049132</v>
+        <v>0.2000971114900754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>2384.33138</v>
       </c>
       <c r="H9">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I9">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J9">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N9">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O9">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P9">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q9">
-        <v>1257.180843292713</v>
+        <v>1434.300899856014</v>
       </c>
       <c r="R9">
-        <v>11314.62758963442</v>
+        <v>12908.70809870412</v>
       </c>
       <c r="S9">
-        <v>0.05104861519940606</v>
+        <v>0.03444978228788335</v>
       </c>
       <c r="T9">
-        <v>0.06522651788570795</v>
+        <v>0.04685036257774813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>2384.33138</v>
       </c>
       <c r="H10">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I10">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J10">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N10">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O10">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P10">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q10">
-        <v>14839.23564797717</v>
+        <v>31001.31622806369</v>
       </c>
       <c r="R10">
-        <v>89035.41388786299</v>
+        <v>186007.8973683822</v>
       </c>
       <c r="S10">
-        <v>0.6025564535829625</v>
+        <v>0.7446056784889644</v>
       </c>
       <c r="T10">
-        <v>0.5132709822229109</v>
+        <v>0.6750898205613699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>2384.33138</v>
       </c>
       <c r="H11">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I11">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J11">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N11">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O11">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P11">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q11">
-        <v>595.4454337444133</v>
+        <v>456.0121189733933</v>
       </c>
       <c r="R11">
-        <v>5359.00890369972</v>
+        <v>4104.10907076054</v>
       </c>
       <c r="S11">
-        <v>0.02417843461553975</v>
+        <v>0.01095273538547372</v>
       </c>
       <c r="T11">
-        <v>0.03089359215208001</v>
+        <v>0.01489529366947718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H12">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I12">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J12">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N12">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O12">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P12">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q12">
-        <v>0.4988027429076667</v>
+        <v>0.640545785816</v>
       </c>
       <c r="R12">
-        <v>4.489224686169</v>
+        <v>5.764912072344</v>
       </c>
       <c r="S12">
-        <v>2.025419765100022E-05</v>
+        <v>1.538496062367219E-05</v>
       </c>
       <c r="T12">
-        <v>2.587946372654983E-05</v>
+        <v>2.092294742068475E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H13">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I13">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J13">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P13">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q13">
-        <v>3.582377494398222</v>
+        <v>3.467326050277333</v>
       </c>
       <c r="R13">
-        <v>32.24139744958399</v>
+        <v>31.205934452496</v>
       </c>
       <c r="S13">
-        <v>0.0001454646809058702</v>
+        <v>8.328003389327287E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001858650733968574</v>
+        <v>0.0001132576035105827</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H14">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I14">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J14">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N14">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O14">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P14">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q14">
-        <v>0.7351923316547778</v>
+        <v>0.8118332214846666</v>
       </c>
       <c r="R14">
-        <v>6.616730984893</v>
+        <v>7.306498993361999</v>
       </c>
       <c r="S14">
-        <v>2.985294489367312E-05</v>
+        <v>1.949903101714943E-05</v>
       </c>
       <c r="T14">
-        <v>3.814410315425909E-05</v>
+        <v>2.651792297072125E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H15">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I15">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J15">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N15">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O15">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P15">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q15">
-        <v>8.677902080847165</v>
+        <v>17.5471537570815</v>
       </c>
       <c r="R15">
-        <v>52.06741248508299</v>
+        <v>105.282922542489</v>
       </c>
       <c r="S15">
-        <v>0.000352371646789521</v>
+        <v>0.0004214566321224201</v>
       </c>
       <c r="T15">
-        <v>0.0003001580020920981</v>
+        <v>0.0003821097399247683</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H16">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I16">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J16">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N16">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O16">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P16">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q16">
-        <v>0.3482131621264445</v>
+        <v>0.2581088721476666</v>
       </c>
       <c r="R16">
-        <v>3.133918459138</v>
+        <v>2.322979849329</v>
       </c>
       <c r="S16">
-        <v>1.41394134468389E-05</v>
+        <v>6.19939264693403E-06</v>
       </c>
       <c r="T16">
-        <v>1.806640004789762E-05</v>
+        <v>8.430932620809036E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H17">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I17">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J17">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N17">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O17">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P17">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q17">
-        <v>28.2581490574365</v>
+        <v>34.61057006378</v>
       </c>
       <c r="R17">
-        <v>169.548894344619</v>
+        <v>207.66342038268</v>
       </c>
       <c r="S17">
-        <v>0.001147439833478805</v>
+        <v>0.0008312946074819091</v>
       </c>
       <c r="T17">
-        <v>0.0009774147581845972</v>
+        <v>0.000753685532639829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H18">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I18">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J18">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O18">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P18">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q18">
-        <v>202.948677921464</v>
+        <v>187.3498098878533</v>
       </c>
       <c r="R18">
-        <v>1217.692067528784</v>
+        <v>1124.09885932712</v>
       </c>
       <c r="S18">
-        <v>0.008240858122930213</v>
+        <v>0.004499864821224613</v>
       </c>
       <c r="T18">
-        <v>0.007019746146547028</v>
+        <v>0.004079760633676079</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H19">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I19">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J19">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N19">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O19">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P19">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q19">
-        <v>41.6500806965905</v>
+        <v>43.86573327698167</v>
       </c>
       <c r="R19">
-        <v>249.900484179543</v>
+        <v>263.19439966189</v>
       </c>
       <c r="S19">
-        <v>0.001691227601699475</v>
+        <v>0.001053589913693898</v>
       </c>
       <c r="T19">
-        <v>0.001440625267765503</v>
+        <v>0.0009552275067580277</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H20">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I20">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J20">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N20">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O20">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P20">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q20">
-        <v>491.6200922973081</v>
+        <v>948.1242527506763</v>
       </c>
       <c r="R20">
-        <v>1966.480369189233</v>
+        <v>3792.497011002705</v>
       </c>
       <c r="S20">
-        <v>0.01996254162627141</v>
+        <v>0.02277253963404877</v>
       </c>
       <c r="T20">
-        <v>0.01133635782147377</v>
+        <v>0.01376434099229029</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H21">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I21">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J21">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N21">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O21">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P21">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q21">
-        <v>19.726955352673</v>
+        <v>13.94638041708416</v>
       </c>
       <c r="R21">
-        <v>118.361732116038</v>
+        <v>83.67828250250498</v>
       </c>
       <c r="S21">
-        <v>0.000801025372146875</v>
+        <v>0.0003349713920703672</v>
       </c>
       <c r="T21">
-        <v>0.000682331219095791</v>
+        <v>0.0003036987005321743</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H22">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I22">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J22">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N22">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O22">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P22">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q22">
-        <v>0.5155148362243334</v>
+        <v>0.511251757328</v>
       </c>
       <c r="R22">
-        <v>4.639633526019</v>
+        <v>4.601265815952</v>
       </c>
       <c r="S22">
-        <v>2.093280266272203E-05</v>
+        <v>1.227950964544152E-05</v>
       </c>
       <c r="T22">
-        <v>2.67465399785011E-05</v>
+        <v>1.669965500386441E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H23">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I23">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J23">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O23">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P23">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q23">
-        <v>3.702402951020444</v>
+        <v>2.767447036085333</v>
       </c>
       <c r="R23">
-        <v>33.321626559184</v>
+        <v>24.907023324768</v>
       </c>
       <c r="S23">
-        <v>0.000150338389713899</v>
+        <v>6.646997704314245E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001920923736574985</v>
+        <v>9.039658070933943E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H24">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I24">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J24">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N24">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O24">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P24">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q24">
-        <v>0.7598245194825556</v>
+        <v>0.6479648611106668</v>
       </c>
       <c r="R24">
-        <v>6.838420675343</v>
+        <v>5.831683749996</v>
       </c>
       <c r="S24">
-        <v>3.085315030139023E-05</v>
+        <v>1.556315581876991E-05</v>
       </c>
       <c r="T24">
-        <v>3.942209895612368E-05</v>
+        <v>2.11652859478248E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H25">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I25">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J25">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N25">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O25">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P25">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q25">
-        <v>8.968650099838833</v>
+        <v>14.005264561977</v>
       </c>
       <c r="R25">
-        <v>53.811900599033</v>
+        <v>84.031587371862</v>
       </c>
       <c r="S25">
-        <v>0.0003641776521233451</v>
+        <v>0.0003363857019770054</v>
       </c>
       <c r="T25">
-        <v>0.0003102146198874737</v>
+        <v>0.0003049809714692266</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.077154</v>
+      </c>
+      <c r="H26">
+        <v>3.231462</v>
+      </c>
+      <c r="I26">
+        <v>0.0004356463910647825</v>
+      </c>
+      <c r="J26">
+        <v>0.0004399716438229128</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>1.441060333333333</v>
-      </c>
-      <c r="H26">
-        <v>4.323181</v>
-      </c>
-      <c r="I26">
-        <v>0.0005809151410019268</v>
-      </c>
-      <c r="J26">
-        <v>0.0005871473366638284</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N26">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O26">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P26">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q26">
-        <v>0.359879839870889</v>
+        <v>0.2060096520646666</v>
       </c>
       <c r="R26">
-        <v>3.238918558838</v>
+        <v>1.854086868582</v>
       </c>
       <c r="S26">
-        <v>1.461314620057046E-05</v>
+        <v>4.948046580423128E-06</v>
       </c>
       <c r="T26">
-        <v>1.867170418423151E-05</v>
+        <v>6.729150692657503E-06</v>
       </c>
     </row>
   </sheetData>
